--- a/WebContent/WEB-INF/lib/presidents.xlsx
+++ b/WebContent/WEB-INF/lib/presidents.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28810"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kittygomeowr/SD/Java/workspace/USPresidentsWeb/WebContent/WEB-INF/lib/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="204">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="204">
   <si>
     <t>#</t>
   </si>
@@ -624,28 +636,23 @@
   </si>
   <si>
     <t>Former host of reality TV show</t>
+  </si>
+  <si>
+    <t>../pictures/1Washington.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -786,51 +793,54 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -838,29 +848,85 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1059,7 +1125,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1078,7 +1144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1108,7 +1174,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1134,7 +1200,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1160,7 +1226,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1186,7 +1252,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1212,7 +1278,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,7 +1304,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1264,7 +1330,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1290,7 +1356,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1316,7 +1382,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,9 +1395,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1348,7 +1420,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1367,7 +1439,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1393,7 +1465,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1419,7 +1491,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1445,7 +1517,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1471,7 +1543,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1497,7 +1569,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1523,7 +1595,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1549,7 +1621,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1575,7 +1647,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1601,7 +1673,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1614,9 +1686,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1630,7 +1708,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1649,7 +1727,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1679,7 +1757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1705,7 +1783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1731,7 +1809,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1757,7 +1835,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1783,7 +1861,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1809,7 +1887,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1835,7 +1913,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1861,7 +1939,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1887,7 +1965,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1900,1490 +1978,1522 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:J47"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3516" style="1" customWidth="1"/>
-    <col min="11" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="11" width="16.33203125" style="1" customWidth="1"/>
+    <col min="13" max="258" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I2" t="s" s="3">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:11" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" ht="44.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="C2" s="5"/>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="14" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="12">
         <v>1</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="H3" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="14"/>
+    </row>
+    <row r="5" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="12">
+        <v>1</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="12">
+        <v>1</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" t="s" s="7">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G12" s="12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="8">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="7">
+      <c r="B13" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="8">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="7">
+      <c r="B14" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="12">
+        <v>0</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="K14" s="14"/>
+    </row>
+    <row r="15" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="G3" s="8">
+      <c r="B15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="12">
+        <v>1</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="12">
+        <v>1</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="12">
+        <v>1</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="12">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="19" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="12">
         <v>2</v>
       </c>
-      <c r="H3" t="s" s="7">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s" s="7">
-        <v>16</v>
-      </c>
-      <c r="J3" t="s" s="7">
+      <c r="H19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="12">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="12">
+        <v>1</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" s="12">
+        <v>0</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="23" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="12">
+        <v>1</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23" s="14"/>
+    </row>
+    <row r="24" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="12">
+        <v>1</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="12">
+        <v>1</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="14"/>
+    </row>
+    <row r="26" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G26" s="12">
+        <v>2</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="14"/>
+    </row>
+    <row r="27" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G27" s="12">
+        <v>1</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="K27" s="14"/>
+    </row>
+    <row r="28" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G28" s="12">
+        <v>1</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J28" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="K28" s="14"/>
+    </row>
+    <row r="29" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="12">
+        <v>2</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K29" s="14"/>
+    </row>
+    <row r="30" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="G30" s="12">
+        <v>1</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K30" s="14"/>
+    </row>
+    <row r="31" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G31" s="12">
+        <v>1</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="K31" s="14"/>
+    </row>
+    <row r="32" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="12">
+        <v>1</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="K32" s="14"/>
+    </row>
+    <row r="33" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="12">
+        <v>4</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="K33" s="14"/>
+    </row>
+    <row r="34" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="G34" s="12">
+        <v>1</v>
+      </c>
+      <c r="H34" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J34" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="K34" s="14"/>
+    </row>
+    <row r="35" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="G35" s="12">
+        <v>2</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="K35" s="14"/>
+    </row>
+    <row r="36" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" ht="32.05" customHeight="1">
-      <c r="A4" s="9">
+      <c r="C36" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="12">
+        <v>1</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="K36" s="14"/>
+    </row>
+    <row r="37" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G37" s="12">
+        <v>1</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K37" s="14"/>
+    </row>
+    <row r="38" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="12">
         <v>2</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s" s="12">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="12">
+      <c r="H38" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="K38" s="14"/>
+    </row>
+    <row r="39" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="G39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="K39" s="14"/>
+    </row>
+    <row r="40" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="12">
+        <v>1</v>
+      </c>
+      <c r="H40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="13">
+      <c r="I40" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="K40" s="14"/>
+    </row>
+    <row r="41" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G41" s="12">
+        <v>2</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="14"/>
+    </row>
+    <row r="42" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="12">
         <v>1</v>
       </c>
-      <c r="H4" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s" s="12">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" ht="56.05" customHeight="1">
-      <c r="A5" s="9">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s" s="10">
+      <c r="H42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="K42" s="14"/>
+    </row>
+    <row r="43" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>20</v>
-      </c>
-      <c r="F5" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="G5" s="13">
+      <c r="D43" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="12">
         <v>2</v>
       </c>
-      <c r="H5" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I5" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s" s="12">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" ht="44.05" customHeight="1">
-      <c r="A6" s="9">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="G6" s="13">
+      <c r="H43" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="K43" s="14"/>
+    </row>
+    <row r="44" spans="1:11" ht="44" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="12">
         <v>2</v>
       </c>
-      <c r="H6" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I6" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s" s="12">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" ht="44.05" customHeight="1">
-      <c r="A7" s="9">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="G7" s="13">
+      <c r="H44" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="K44" s="14"/>
+    </row>
+    <row r="45" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="12">
         <v>2</v>
       </c>
-      <c r="H7" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I7" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s" s="12">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" ht="44.05" customHeight="1">
-      <c r="A8" s="9">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>19</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="G8" s="13">
+      <c r="H45" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K45" s="14"/>
+    </row>
+    <row r="46" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="F46" s="10"/>
+      <c r="G46" s="12">
         <v>1</v>
       </c>
-      <c r="H8" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s" s="12">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" ht="32.05" customHeight="1">
-      <c r="A9" s="9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>38</v>
-      </c>
-      <c r="F9" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="G9" s="13">
-        <v>2</v>
-      </c>
-      <c r="H9" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I9" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J9" t="s" s="12">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" ht="44.05" customHeight="1">
-      <c r="A10" s="9">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="F10" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I10" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s" s="12">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" ht="56.05" customHeight="1">
-      <c r="A11" s="9">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>47</v>
-      </c>
-      <c r="F11" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="G11" s="13">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="I11" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="J11" t="s" s="12">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" ht="44.05" customHeight="1">
-      <c r="A12" s="9">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="F12" t="s" s="12">
-        <v>57</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I12" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="J12" t="s" s="12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" ht="44.05" customHeight="1">
-      <c r="A13" s="9">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>57</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="G13" s="13">
-        <v>1</v>
-      </c>
-      <c r="H13" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I13" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J13" t="s" s="12">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" ht="44.05" customHeight="1">
-      <c r="A14" s="9">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>63</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="G14" s="13">
-        <v>1</v>
-      </c>
-      <c r="H14" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="I14" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="J14" t="s" s="12">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" ht="44.05" customHeight="1">
-      <c r="A15" s="9">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I15" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="J15" t="s" s="12">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" ht="32.05" customHeight="1">
-      <c r="A16" s="9">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="F16" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
-      </c>
-      <c r="H16" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I16" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J16" t="s" s="12">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" ht="32.05" customHeight="1">
-      <c r="A17" s="9">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
-      </c>
-      <c r="H17" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J17" t="s" s="12">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" ht="44.05" customHeight="1">
-      <c r="A18" s="9">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>78</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" t="s" s="12">
-        <v>79</v>
-      </c>
-      <c r="E18" t="s" s="12">
-        <v>76</v>
-      </c>
-      <c r="F18" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="G18" s="13">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s" s="12">
+      <c r="H46" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I46" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="I18" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J18" t="s" s="12">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" ht="44.05" customHeight="1">
-      <c r="A19" s="9">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="E19" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I19" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J19" t="s" s="12">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="20" ht="44.05" customHeight="1">
-      <c r="A20" s="9">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s" s="10">
-        <v>87</v>
-      </c>
-      <c r="C20" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="F20" t="s" s="12">
-        <v>90</v>
-      </c>
-      <c r="G20" s="13">
-        <v>2</v>
-      </c>
-      <c r="H20" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I20" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J20" t="s" s="12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" ht="44.05" customHeight="1">
-      <c r="A21" s="9">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s" s="10">
-        <v>92</v>
-      </c>
-      <c r="C21" t="s" s="12">
-        <v>93</v>
-      </c>
-      <c r="D21" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="E21" t="s" s="12">
-        <v>90</v>
-      </c>
-      <c r="F21" t="s" s="12">
-        <v>95</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I21" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J21" t="s" s="12">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" ht="32.05" customHeight="1">
-      <c r="A22" s="9">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C22" t="s" s="12">
-        <v>97</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>98</v>
-      </c>
-      <c r="E22" t="s" s="12">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s" s="12">
-        <v>99</v>
-      </c>
-      <c r="G22" s="13">
-        <v>1</v>
-      </c>
-      <c r="H22" t="s" s="12">
-        <v>81</v>
-      </c>
-      <c r="I22" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J22" t="s" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" ht="32.05" customHeight="1">
-      <c r="A23" s="9">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="C23" t="s" s="12">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s" s="12">
-        <v>103</v>
-      </c>
-      <c r="E23" t="s" s="12">
-        <v>99</v>
-      </c>
-      <c r="F23" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I23" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J23" t="s" s="12">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="9">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" t="s" s="12">
-        <v>107</v>
-      </c>
-      <c r="E24" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="F24" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="G24" s="13">
-        <v>1</v>
-      </c>
-      <c r="H24" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I24" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J24" t="s" s="12">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="25" ht="44.05" customHeight="1">
-      <c r="A25" s="9">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>110</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" t="s" s="12">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="F25" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="G25" s="13">
-        <v>1</v>
-      </c>
-      <c r="H25" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I25" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J25" t="s" s="12">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" ht="32.05" customHeight="1">
-      <c r="A26" s="9">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>106</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="E26" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="F26" t="s" s="12">
-        <v>114</v>
-      </c>
-      <c r="G26" s="13">
-        <v>1</v>
-      </c>
-      <c r="H26" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I26" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J26" t="s" s="12">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" ht="44.05" customHeight="1">
-      <c r="A27" s="9">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" t="s" s="12">
-        <v>115</v>
-      </c>
-      <c r="E27" t="s" s="12">
-        <v>114</v>
-      </c>
-      <c r="F27" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="G27" s="13">
-        <v>2</v>
-      </c>
-      <c r="H27" t="s" s="12">
-        <v>81</v>
-      </c>
-      <c r="I27" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J27" t="s" s="12">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="28" ht="44.05" customHeight="1">
-      <c r="A28" s="9">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" t="s" s="12">
-        <v>119</v>
-      </c>
-      <c r="E28" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="F28" t="s" s="12">
-        <v>120</v>
-      </c>
-      <c r="G28" s="13">
-        <v>1</v>
-      </c>
-      <c r="H28" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I28" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J28" t="s" s="12">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" ht="32.05" customHeight="1">
-      <c r="A29" s="9">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="C29" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="D29" t="s" s="12">
-        <v>122</v>
-      </c>
-      <c r="E29" t="s" s="12">
-        <v>120</v>
-      </c>
-      <c r="F29" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="G29" s="13">
-        <v>1</v>
-      </c>
-      <c r="H29" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I29" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J29" t="s" s="12">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" ht="44.05" customHeight="1">
-      <c r="A30" s="9">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s" s="10">
-        <v>125</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s" s="12">
-        <v>123</v>
-      </c>
-      <c r="F30" t="s" s="12">
-        <v>127</v>
-      </c>
-      <c r="G30" s="13">
-        <v>2</v>
-      </c>
-      <c r="H30" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I30" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J30" t="s" s="12">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" ht="44.05" customHeight="1">
-      <c r="A31" s="9">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="C31" t="s" s="12">
-        <v>130</v>
-      </c>
-      <c r="D31" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="E31" t="s" s="12">
-        <v>127</v>
-      </c>
-      <c r="F31" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="I31" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J31" t="s" s="12">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="32" ht="56.05" customHeight="1">
-      <c r="A32" s="9">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="E32" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="F32" t="s" s="12">
-        <v>136</v>
-      </c>
-      <c r="G32" s="13">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I32" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J32" t="s" s="12">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" ht="56.05" customHeight="1">
-      <c r="A33" s="9">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s" s="10">
-        <v>138</v>
-      </c>
-      <c r="C33" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="D33" t="s" s="12">
-        <v>140</v>
-      </c>
-      <c r="E33" t="s" s="12">
-        <v>136</v>
-      </c>
-      <c r="F33" t="s" s="12">
-        <v>141</v>
-      </c>
-      <c r="G33" s="13">
-        <v>1</v>
-      </c>
-      <c r="H33" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I33" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J33" t="s" s="12">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="34" ht="32.05" customHeight="1">
-      <c r="A34" s="9">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s" s="12">
-        <v>143</v>
-      </c>
-      <c r="D34" t="s" s="12">
-        <v>119</v>
-      </c>
-      <c r="E34" t="s" s="12">
-        <v>141</v>
-      </c>
-      <c r="F34" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="G34" s="13">
-        <v>4</v>
-      </c>
-      <c r="H34" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="I34" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J34" t="s" s="12">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" ht="44.05" customHeight="1">
-      <c r="A35" s="9">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s" s="10">
-        <v>146</v>
-      </c>
-      <c r="C35" t="s" s="12">
-        <v>147</v>
-      </c>
-      <c r="D35" t="s" s="12">
-        <v>148</v>
-      </c>
-      <c r="E35" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="F35" t="s" s="12">
-        <v>149</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1</v>
-      </c>
-      <c r="H35" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I35" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J35" t="s" s="12">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="36" ht="44.05" customHeight="1">
-      <c r="A36" s="9">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s" s="10">
-        <v>151</v>
-      </c>
-      <c r="C36" t="s" s="12">
-        <v>152</v>
-      </c>
-      <c r="D36" t="s" s="12">
-        <v>153</v>
-      </c>
-      <c r="E36" t="s" s="12">
-        <v>149</v>
-      </c>
-      <c r="F36" t="s" s="12">
-        <v>154</v>
-      </c>
-      <c r="G36" s="13">
-        <v>2</v>
-      </c>
-      <c r="H36" t="s" s="12">
-        <v>155</v>
-      </c>
-      <c r="I36" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J36" t="s" s="12">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="37" ht="56.05" customHeight="1">
-      <c r="A37" s="9">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s" s="12">
-        <v>157</v>
-      </c>
-      <c r="D37" t="s" s="12">
-        <v>158</v>
-      </c>
-      <c r="E37" t="s" s="12">
-        <v>154</v>
-      </c>
-      <c r="F37" t="s" s="12">
-        <v>159</v>
-      </c>
-      <c r="G37" s="13">
-        <v>1</v>
-      </c>
-      <c r="H37" t="s" s="12">
-        <v>81</v>
-      </c>
-      <c r="I37" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J37" t="s" s="12">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" ht="32.05" customHeight="1">
-      <c r="A38" s="9">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s" s="12">
-        <v>162</v>
-      </c>
-      <c r="D38" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="E38" t="s" s="12">
-        <v>159</v>
-      </c>
-      <c r="F38" t="s" s="12">
-        <v>163</v>
-      </c>
-      <c r="G38" s="13">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s" s="12">
-        <v>27</v>
-      </c>
-      <c r="I38" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J38" t="s" s="12">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" ht="32.05" customHeight="1">
-      <c r="A39" s="9">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s" s="10">
-        <v>165</v>
-      </c>
-      <c r="C39" t="s" s="12">
-        <v>166</v>
-      </c>
-      <c r="D39" t="s" s="12">
-        <v>167</v>
-      </c>
-      <c r="E39" t="s" s="12">
-        <v>163</v>
-      </c>
-      <c r="F39" t="s" s="12">
-        <v>168</v>
-      </c>
-      <c r="G39" s="13">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s" s="12">
-        <v>169</v>
-      </c>
-      <c r="I39" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J39" t="s" s="12">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" ht="44.05" customHeight="1">
-      <c r="A40" s="9">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s" s="10">
-        <v>171</v>
-      </c>
-      <c r="C40" t="s" s="12">
-        <v>172</v>
-      </c>
-      <c r="D40" t="s" s="12">
-        <v>173</v>
-      </c>
-      <c r="E40" t="s" s="12">
-        <v>168</v>
-      </c>
-      <c r="F40" t="s" s="12">
-        <v>174</v>
-      </c>
-      <c r="G40" s="13">
-        <v>0</v>
-      </c>
-      <c r="H40" t="s" s="12">
-        <v>175</v>
-      </c>
-      <c r="I40" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J40" t="s" s="12">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="41" ht="32.05" customHeight="1">
-      <c r="A41" s="9">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="C41" t="s" s="12">
-        <v>177</v>
-      </c>
-      <c r="D41" t="s" s="12">
-        <v>178</v>
-      </c>
-      <c r="E41" t="s" s="12">
-        <v>174</v>
-      </c>
-      <c r="F41" t="s" s="12">
-        <v>179</v>
-      </c>
-      <c r="G41" s="13">
-        <v>1</v>
-      </c>
-      <c r="H41" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I41" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J41" t="s" s="12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="42" ht="32.05" customHeight="1">
-      <c r="A42" s="9">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s" s="10">
-        <v>181</v>
-      </c>
-      <c r="C42" t="s" s="12">
-        <v>126</v>
-      </c>
-      <c r="D42" t="s" s="12">
-        <v>182</v>
-      </c>
-      <c r="E42" t="s" s="12">
-        <v>179</v>
-      </c>
-      <c r="F42" t="s" s="12">
-        <v>183</v>
-      </c>
-      <c r="G42" s="13">
-        <v>2</v>
-      </c>
-      <c r="H42" t="s" s="12">
-        <v>155</v>
-      </c>
-      <c r="I42" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J42" t="s" s="12">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="43" ht="44.05" customHeight="1">
-      <c r="A43" s="9">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C43" t="s" s="12">
-        <v>185</v>
-      </c>
-      <c r="D43" t="s" s="12">
-        <v>186</v>
-      </c>
-      <c r="E43" t="s" s="12">
-        <v>183</v>
-      </c>
-      <c r="F43" t="s" s="12">
-        <v>187</v>
-      </c>
-      <c r="G43" s="13">
-        <v>1</v>
-      </c>
-      <c r="H43" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="I43" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J43" t="s" s="12">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="44" ht="44.05" customHeight="1">
-      <c r="A44" s="9">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="C44" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="D44" t="s" s="12">
-        <v>189</v>
-      </c>
-      <c r="E44" t="s" s="12">
-        <v>187</v>
-      </c>
-      <c r="F44" t="s" s="12">
-        <v>190</v>
-      </c>
-      <c r="G44" s="13">
-        <v>2</v>
-      </c>
-      <c r="H44" t="s" s="12">
-        <v>155</v>
-      </c>
-      <c r="I44" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J44" t="s" s="12">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="45" ht="44.05" customHeight="1">
-      <c r="A45" s="9">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="C45" t="s" s="12">
-        <v>192</v>
-      </c>
-      <c r="D45" t="s" s="12">
-        <v>186</v>
-      </c>
-      <c r="E45" t="s" s="12">
-        <v>190</v>
-      </c>
-      <c r="F45" t="s" s="12">
-        <v>193</v>
-      </c>
-      <c r="G45" s="13">
-        <v>2</v>
-      </c>
-      <c r="H45" t="s" s="12">
-        <v>155</v>
-      </c>
-      <c r="I45" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J45" t="s" s="12">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="46" ht="32.05" customHeight="1">
-      <c r="A46" s="9">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s" s="10">
-        <v>195</v>
-      </c>
-      <c r="C46" t="s" s="12">
-        <v>196</v>
-      </c>
-      <c r="D46" t="s" s="12">
-        <v>197</v>
-      </c>
-      <c r="E46" t="s" s="12">
-        <v>193</v>
-      </c>
-      <c r="F46" t="s" s="12">
-        <v>198</v>
-      </c>
-      <c r="G46" s="13">
-        <v>2</v>
-      </c>
-      <c r="H46" t="s" s="12">
-        <v>155</v>
-      </c>
-      <c r="I46" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="J46" t="s" s="12">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="47" ht="32.05" customHeight="1">
-      <c r="A47" s="9">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>200</v>
-      </c>
-      <c r="C47" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="D47" t="s" s="12">
-        <v>201</v>
-      </c>
-      <c r="E47" t="s" s="12">
-        <v>198</v>
-      </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="13">
-        <v>1</v>
-      </c>
-      <c r="H47" t="s" s="12">
+      <c r="J46" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="I47" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="J47" t="s" s="12">
-        <v>203</v>
-      </c>
+      <c r="K46" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
